--- a/biology/Botanique/Chromoplaste/Chromoplaste.xlsx
+++ b/biology/Botanique/Chromoplaste/Chromoplaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chromoplaste est un organite observé dans les cellules des organes végétaux colorés de jaune à orange (par exemple les cellules de pétales de fleurs).
 Ces organites peuvent dériver des chloroplastes ou des proplastes et  sont riches en pigments non chlorophylliens, comme les xanthophylles, les carotènes, etc. Le changement de couleur lors du mûrissement des fruits de tomates et de poivrons résulte d'une transformation des chloroplastes en chromoplastes dans les cellules du péricarpe du fruit.
@@ -520,7 +532,9 @@
           <t>Comparaison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les différents types de plastes : 
 Proplaste
